--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Nowy_TIMES\MSc_SELECT-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Nowy_TIMES\MSc_SELECT_8760\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0E4426-7959-46A4-A98D-8D1783F2C3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DFA0EA-D398-4B57-8121-46C781465EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -3068,7 +3068,7 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3384,7 +3384,7 @@
   <dimension ref="A2:J31"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3496,7 +3496,9 @@
       <c r="G7" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
     </row>
@@ -3515,7 +3517,9 @@
       <c r="G8" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
@@ -3534,7 +3538,9 @@
       <c r="G9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
     </row>
@@ -3553,7 +3559,7 @@
       <c r="G10" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
     </row>
@@ -4056,6 +4062,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -4199,22 +4220,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ADE2FD8-87C7-41E1-A1A0-6DF35B741F42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4230,21 +4253,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Nowy_TIMES\MSc_SELECT_8760\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_8760\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DFA0EA-D398-4B57-8121-46C781465EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5004AB-76D9-4615-81D0-FE7B25AF1E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -3067,8 +3067,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3383,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3496,9 +3496,7 @@
       <c r="G7" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>80</v>
-      </c>
+      <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
     </row>
@@ -3517,9 +3515,7 @@
       <c r="G8" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>80</v>
-      </c>
+      <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
@@ -3538,9 +3534,7 @@
       <c r="G9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>80</v>
-      </c>
+      <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
     </row>
@@ -3559,7 +3553,7 @@
       <c r="G10" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
     </row>
